--- a/data/nomination/nova/autumn/female/09-nova-autumn-female-nomination.xlsx
+++ b/data/nomination/nova/autumn/female/09-nova-autumn-female-nomination.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ISML\ISML2024-github\data\nomination\nova\autumn\female\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7C26309-4FF0-4245-8E59-05C7B3778152}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8ED425F-E6E2-4A75-964A-AD0B76795168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="新星组夏季赛提名-女性组别" sheetId="1" r:id="rId1"/>
+    <sheet name="新星组秋季赛提名-女性组别" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -810,7 +810,7 @@
   <dimension ref="A1:K89"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.3"/>
